--- a/Data/Okanogan_EDT/AU_Ranks_Okanogan_EDT.xlsx
+++ b/Data/Okanogan_EDT/AU_Ranks_Okanogan_EDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997FE19-BCE4-4153-ADCC-4BBAE9016CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0FC8E-85EA-4564-88A4-94D229AE5BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="684" windowWidth="16800" windowHeight="11508" xr2:uid="{EAA83545-D9F2-494B-8371-57CE94474EBD}"/>
+    <workbookView xWindow="2052" yWindow="720" windowWidth="19968" windowHeight="10356" xr2:uid="{EAA83545-D9F2-494B-8371-57CE94474EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Aeneas Creek-DS</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Lower Antoine Creek</t>
   </si>
   <si>
-    <t>Antoine Creek-Lower DS</t>
-  </si>
-  <si>
     <t>170200061605</t>
   </si>
   <si>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>Aeneas Creek Okanogan</t>
+  </si>
+  <si>
+    <t>Antoine Creek-Lower</t>
+  </si>
+  <si>
+    <t>Omak Creek-Lower DS</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E01356-54B5-4457-B933-DE2022C25619}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0">
   <autoFilter ref="A1:E1048576" xr:uid="{924833DC-4E40-4EA5-8510-AD2D0F4F6894}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB30797D-BF5D-41D8-9940-DE666311C699}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,206 +774,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -987,32 +990,32 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1020,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1029,152 +1032,152 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
@@ -1182,32 +1185,32 @@
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -1216,32 +1219,32 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -1250,166 +1253,166 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="5">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -1418,6 +1421,23 @@
         <v>3</v>
       </c>
       <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>170200061905</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
